--- a/hypData.xlsx
+++ b/hypData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annsaephan/Documents/GitHub/guided1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58DACE12-0E88-2241-8012-BDBE0138657B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC6C7882-C17A-CE4F-95EE-1DB6E046D235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A33DD157-6F66-B942-9F6D-4C433246EC40}"/>
+    <workbookView xWindow="8380" yWindow="500" windowWidth="21860" windowHeight="16300" xr2:uid="{A33DD157-6F66-B942-9F6D-4C433246EC40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="67">
   <si>
     <t>IA</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>region_perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -613,7 +616,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1501,7 +1504,9 @@
         <f t="shared" si="0"/>
         <v>2.0644374864433331E-2</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
